--- a/wl_ios/需求说明/IOS叶强端计划进度工作情况.xlsx
+++ b/wl_ios/需求说明/IOS叶强端计划进度工作情况.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yeqiang/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yeqiang/Desktop/code/wl_crm/wl_ios/需求说明/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756F3E70-28EC-0141-9C7B-BA23286F81BC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEFE51A4-589F-B64E-8BB5-50E7BCACB50B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7320" yWindow="1100" windowWidth="23260" windowHeight="12580" xr2:uid="{28D57F83-C4F9-414D-9540-EE4448F5F478}"/>
   </bookViews>
@@ -20,17 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,6 +144,10 @@
   </si>
   <si>
     <t>联调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>录视频教程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -227,8 +226,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{264B2855-1C75-4BDD-95E0-E9E554C5DB28}" name="表3" displayName="表3" ref="B1:I13" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="B1:I13" xr:uid="{881F280A-F4AE-4308-ACED-65F7C99D581C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{264B2855-1C75-4BDD-95E0-E9E554C5DB28}" name="表3" displayName="表3" ref="B1:I17" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="B1:I17" xr:uid="{881F280A-F4AE-4308-ACED-65F7C99D581C}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{8D710061-65B0-4BC0-B256-4A16E5A387A8}" name="序号"/>
     <tableColumn id="2" xr3:uid="{77615F7C-70C7-47DF-935F-B4A6D7FB9DFA}" name="功能"/>
@@ -540,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E3828E1-C6C7-48EC-8129-1866FF7189AD}">
-  <dimension ref="B1:I13"/>
+  <dimension ref="B1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -837,9 +836,78 @@
       </c>
     </row>
     <row r="13" spans="2:9">
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="2">
+        <v>44299.791666666664</v>
+      </c>
+      <c r="G13" s="2">
+        <v>44299.875</v>
+      </c>
       <c r="H13">
-        <f>SUBTOTAL(109,H2:H12)</f>
-        <v>43.5</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="2">
+        <v>44300.333333333336</v>
+      </c>
+      <c r="G14" s="2">
+        <v>44300.5</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="2">
+        <v>44301.75</v>
+      </c>
+      <c r="G15" s="2">
+        <v>44301.833333333336</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="H16">
+        <f>SUBTOTAL(109,H2:H15)</f>
+        <v>51.5</v>
       </c>
     </row>
   </sheetData>

--- a/wl_ios/需求说明/IOS叶强端计划进度工作情况.xlsx
+++ b/wl_ios/需求说明/IOS叶强端计划进度工作情况.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yeqiang/Desktop/code/wl_crm/wl_ios/需求说明/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEFE51A4-589F-B64E-8BB5-50E7BCACB50B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850F53BB-66BC-ED46-8E84-EC4AEE98ACB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7320" yWindow="1100" windowWidth="23260" windowHeight="12580" xr2:uid="{28D57F83-C4F9-414D-9540-EE4448F5F478}"/>
+    <workbookView xWindow="3100" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{28D57F83-C4F9-414D-9540-EE4448F5F478}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -148,6 +148,10 @@
   </si>
   <si>
     <t>录视频教程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -539,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E3828E1-C6C7-48EC-8129-1866FF7189AD}">
-  <dimension ref="B1:I16"/>
+  <dimension ref="B1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -905,9 +909,32 @@
       </c>
     </row>
     <row r="16" spans="2:9">
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="2">
+        <v>44368.791666666664</v>
+      </c>
+      <c r="G16" s="2">
+        <v>44368.875</v>
+      </c>
       <c r="H16">
-        <f>SUBTOTAL(109,H2:H15)</f>
-        <v>51.5</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="8:8">
+      <c r="H17">
+        <f>SUBTOTAL(109,H2:H16)</f>
+        <v>53.5</v>
       </c>
     </row>
   </sheetData>
